--- a/results/I3_N5_M3_T30_C200_DepLowerLeft_s0_mean_res.xlsx
+++ b/results/I3_N5_M3_T30_C200_DepLowerLeft_s0_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>152.9610498000232</v>
+        <v>116.2438725227562</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.187000036239624</v>
+        <v>0.09599995613098145</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.44104980002316</v>
+        <v>40.24387252275617</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.52</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>20.46175580952923</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16.11365209997864</v>
+        <v>10.90513640446556</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>24.81299701176103</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.7338617375427</v>
+        <v>24.57220118279979</v>
       </c>
     </row>
     <row r="7">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>183.9330000000027</v>
+        <v>126.8</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>109.3520000000008</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>97.00099999999657</v>
+        <v>179.6</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>190.926999999996</v>
+        <v>93.40000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>87.66399999999703</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>183.9330000000027</v>
+        <v>93.40000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>190.9269999999836</v>
+        <v>179.6</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>97.00099999999716</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>10.252</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4">
